--- a/test-data/VRAM-NIPR-Test.xlsx
+++ b/test-data/VRAM-NIPR-Test.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H59"/>
+  <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -433,25 +433,25 @@
         <v>SSN-775</v>
       </c>
       <c r="B2" t="str">
-        <v>2025-12-03</v>
+        <v>2025-12-01</v>
       </c>
       <c r="C2">
-        <v>163</v>
+        <v>113</v>
       </c>
       <c r="D2">
-        <v>1.93</v>
+        <v>1.46</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G2">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H2">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -462,22 +462,22 @@
         <v>2025-12-05</v>
       </c>
       <c r="C3">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="D3">
-        <v>0.98</v>
+        <v>1.37</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H3">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4">
@@ -485,25 +485,25 @@
         <v>SSN-777</v>
       </c>
       <c r="B4" t="str">
-        <v>2025-12-08</v>
+        <v>2025-12-05</v>
       </c>
       <c r="C4">
+        <v>136</v>
+      </c>
+      <c r="D4">
+        <v>2.93</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
         <v>91</v>
       </c>
-      <c r="D4">
-        <v>2.73</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>8</v>
-      </c>
-      <c r="G4">
-        <v>90</v>
-      </c>
       <c r="H4">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5">
@@ -511,25 +511,25 @@
         <v>SSN-786</v>
       </c>
       <c r="B5" t="str">
-        <v>2025-11-24</v>
+        <v>2025-12-07</v>
       </c>
       <c r="C5">
-        <v>160</v>
+        <v>62</v>
       </c>
       <c r="D5">
-        <v>3.84</v>
+        <v>2.98</v>
       </c>
       <c r="E5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="G5">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="H5">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6">
@@ -537,22 +537,22 @@
         <v>SSN-792</v>
       </c>
       <c r="B6" t="str">
-        <v>2025-11-30</v>
+        <v>2025-12-04</v>
       </c>
       <c r="C6">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="D6">
-        <v>2.26</v>
+        <v>1.63</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G6">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H6">
         <v>96</v>
@@ -563,25 +563,25 @@
         <v>SSN-794</v>
       </c>
       <c r="B7" t="str">
-        <v>2025-11-28</v>
+        <v>2025-12-07</v>
       </c>
       <c r="C7">
-        <v>134</v>
+        <v>158</v>
       </c>
       <c r="D7">
-        <v>3.5</v>
+        <v>1.24</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="G7">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="H7">
-        <v>85</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8">
@@ -589,25 +589,25 @@
         <v>SSN-762</v>
       </c>
       <c r="B8" t="str">
-        <v>2025-11-24</v>
+        <v>2025-12-01</v>
       </c>
       <c r="C8">
-        <v>137</v>
+        <v>187</v>
       </c>
       <c r="D8">
-        <v>5.99</v>
+        <v>0.7</v>
       </c>
       <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
         <v>7</v>
       </c>
-      <c r="F8">
-        <v>14</v>
-      </c>
       <c r="G8">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="H8">
-        <v>85</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9">
@@ -615,25 +615,25 @@
         <v>SSN-763</v>
       </c>
       <c r="B9" t="str">
-        <v>2025-12-03</v>
+        <v>2025-12-08</v>
       </c>
       <c r="C9">
-        <v>131</v>
+        <v>157</v>
       </c>
       <c r="D9">
-        <v>2.16</v>
+        <v>2.5</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
         <v>5</v>
       </c>
       <c r="G9">
+        <v>95</v>
+      </c>
+      <c r="H9">
         <v>98</v>
-      </c>
-      <c r="H9">
-        <v>100</v>
       </c>
     </row>
     <row r="10">
@@ -641,25 +641,25 @@
         <v>SSN-766</v>
       </c>
       <c r="B10" t="str">
-        <v>2025-12-03</v>
+        <v>2025-11-27</v>
       </c>
       <c r="C10">
-        <v>134</v>
+        <v>55</v>
       </c>
       <c r="D10">
-        <v>2.54</v>
+        <v>4.67</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F10">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="G10">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="H10">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11">
@@ -667,25 +667,25 @@
         <v>SSN-771</v>
       </c>
       <c r="B11" t="str">
-        <v>2025-12-07</v>
+        <v>2025-12-02</v>
       </c>
       <c r="C11">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="D11">
-        <v>0.59</v>
+        <v>2.61</v>
       </c>
       <c r="E11">
         <v>2</v>
       </c>
       <c r="F11">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="H11">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12">
@@ -693,25 +693,25 @@
         <v>SSN-772</v>
       </c>
       <c r="B12" t="str">
-        <v>2025-11-28</v>
+        <v>2025-11-14</v>
       </c>
       <c r="C12">
-        <v>76</v>
+        <v>145</v>
       </c>
       <c r="D12">
-        <v>6.68</v>
+        <v>11.85</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F12">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="G12">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="H12">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13">
@@ -719,25 +719,25 @@
         <v>SSN-773</v>
       </c>
       <c r="B13" t="str">
-        <v>2025-12-03</v>
+        <v>2025-12-01</v>
       </c>
       <c r="C13">
-        <v>75</v>
+        <v>171</v>
       </c>
       <c r="D13">
-        <v>2.14</v>
+        <v>1.54</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G13">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H13">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14">
@@ -745,25 +745,25 @@
         <v>SSN-752</v>
       </c>
       <c r="B14" t="str">
-        <v>2025-11-30</v>
+        <v>2025-12-05</v>
       </c>
       <c r="C14">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="D14">
-        <v>4.29</v>
+        <v>6.43</v>
       </c>
       <c r="E14">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G14">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H14">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15">
@@ -771,25 +771,25 @@
         <v>SSN-754</v>
       </c>
       <c r="B15" t="str">
-        <v>2025-11-19</v>
+        <v>2025-12-08</v>
       </c>
       <c r="C15">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="D15">
-        <v>12.01</v>
+        <v>1.59</v>
       </c>
       <c r="E15">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>67</v>
+        <v>5</v>
       </c>
       <c r="G15">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="H15">
-        <v>75</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16">
@@ -797,22 +797,22 @@
         <v>SSN-758</v>
       </c>
       <c r="B16" t="str">
-        <v>2025-12-04</v>
+        <v>2025-12-08</v>
       </c>
       <c r="C16">
-        <v>151</v>
+        <v>112</v>
       </c>
       <c r="D16">
-        <v>0.64</v>
+        <v>0.93</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G16">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H16">
         <v>99</v>
@@ -823,25 +823,25 @@
         <v>SSN-767</v>
       </c>
       <c r="B17" t="str">
-        <v>2025-12-02</v>
+        <v>2025-12-08</v>
       </c>
       <c r="C17">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="D17">
-        <v>2.78</v>
+        <v>1.76</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G17">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H17">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18">
@@ -849,25 +849,25 @@
         <v>SSN-722</v>
       </c>
       <c r="B18" t="str">
-        <v>2025-12-06</v>
+        <v>2025-12-07</v>
       </c>
       <c r="C18">
+        <v>121</v>
+      </c>
+      <c r="D18">
+        <v>2.7</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>4</v>
+      </c>
+      <c r="G18">
         <v>99</v>
       </c>
-      <c r="D18">
-        <v>1.64</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>6</v>
-      </c>
-      <c r="G18">
-        <v>93</v>
-      </c>
       <c r="H18">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19">
@@ -875,25 +875,25 @@
         <v>SSN-759</v>
       </c>
       <c r="B19" t="str">
-        <v>2025-11-24</v>
+        <v>2025-12-03</v>
       </c>
       <c r="C19">
-        <v>50</v>
+        <v>177</v>
       </c>
       <c r="D19">
-        <v>12.6</v>
+        <v>2.55</v>
       </c>
       <c r="E19">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="G19">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="H19">
-        <v>72</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20">
@@ -901,25 +901,25 @@
         <v>SSN-760</v>
       </c>
       <c r="B20" t="str">
-        <v>2025-12-01</v>
+        <v>2025-12-06</v>
       </c>
       <c r="C20">
-        <v>180</v>
+        <v>126</v>
       </c>
       <c r="D20">
-        <v>0.78</v>
+        <v>0.96</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="H20">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21">
@@ -927,25 +927,25 @@
         <v>SSN-761</v>
       </c>
       <c r="B21" t="str">
-        <v>2025-11-28</v>
+        <v>2025-12-04</v>
       </c>
       <c r="C21">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D21">
-        <v>2.92</v>
+        <v>11.29</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="F21">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="G21">
-        <v>92</v>
+        <v>54</v>
       </c>
       <c r="H21">
-        <v>96</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22">
@@ -953,25 +953,25 @@
         <v>SSN-783</v>
       </c>
       <c r="B22" t="str">
-        <v>2025-11-15</v>
+        <v>2025-11-25</v>
       </c>
       <c r="C22">
-        <v>181</v>
+        <v>70</v>
       </c>
       <c r="D22">
-        <v>10.05</v>
+        <v>1.12</v>
       </c>
       <c r="E22">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="G22">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="H22">
-        <v>78</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23">
@@ -982,19 +982,19 @@
         <v>2025-12-07</v>
       </c>
       <c r="C23">
-        <v>188</v>
+        <v>87</v>
       </c>
       <c r="D23">
-        <v>1.3</v>
+        <v>1.69</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G23">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="H23">
         <v>97</v>
@@ -1005,25 +1005,25 @@
         <v>SSBN-731</v>
       </c>
       <c r="B24" t="str">
-        <v>2025-12-03</v>
+        <v>2025-12-06</v>
       </c>
       <c r="C24">
-        <v>107</v>
+        <v>56</v>
       </c>
       <c r="D24">
-        <v>0.54</v>
+        <v>2.22</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G24">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="H24">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25">
@@ -1031,25 +1031,25 @@
         <v>SSBN-733</v>
       </c>
       <c r="B25" t="str">
-        <v>2025-11-04</v>
+        <v>2025-12-05</v>
       </c>
       <c r="C25">
-        <v>69</v>
+        <v>126</v>
       </c>
       <c r="D25">
-        <v>7.13</v>
+        <v>2.36</v>
       </c>
       <c r="E25">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="H25">
-        <v>72</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26">
@@ -1057,25 +1057,25 @@
         <v>SSBN-739</v>
       </c>
       <c r="B26" t="str">
-        <v>2025-11-30</v>
+        <v>2025-12-06</v>
       </c>
       <c r="C26">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="D26">
-        <v>1.39</v>
+        <v>0.97</v>
       </c>
       <c r="E26">
         <v>1</v>
       </c>
       <c r="F26">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G26">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="H26">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27">
@@ -1083,25 +1083,25 @@
         <v>SSBN-741</v>
       </c>
       <c r="B27" t="str">
-        <v>2025-12-03</v>
+        <v>2025-12-01</v>
       </c>
       <c r="C27">
-        <v>125</v>
+        <v>82</v>
       </c>
       <c r="D27">
-        <v>2.14</v>
+        <v>2.44</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G27">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="H27">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28">
@@ -1109,25 +1109,25 @@
         <v>SSBN-743</v>
       </c>
       <c r="B28" t="str">
-        <v>2025-11-27</v>
+        <v>2025-12-03</v>
       </c>
       <c r="C28">
-        <v>145</v>
+        <v>180</v>
       </c>
       <c r="D28">
-        <v>4.13</v>
+        <v>6.87</v>
       </c>
       <c r="E28">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F28">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="G28">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="H28">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29">
@@ -1135,25 +1135,25 @@
         <v>SSGN-726</v>
       </c>
       <c r="B29" t="str">
-        <v>2025-10-18</v>
+        <v>2025-11-20</v>
       </c>
       <c r="C29">
-        <v>129</v>
+        <v>57</v>
       </c>
       <c r="D29">
-        <v>13.06</v>
+        <v>12.2</v>
       </c>
       <c r="E29">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F29">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="G29">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="H29">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30">
@@ -1161,25 +1161,25 @@
         <v>SSGN-727</v>
       </c>
       <c r="B30" t="str">
-        <v>2025-11-24</v>
+        <v>2025-11-29</v>
       </c>
       <c r="C30">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="D30">
-        <v>9.75</v>
+        <v>5.7</v>
       </c>
       <c r="E30">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="F30">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="G30">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="H30">
-        <v>70</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31">
@@ -1187,25 +1187,25 @@
         <v>SSBN-735</v>
       </c>
       <c r="B31" t="str">
-        <v>2025-12-04</v>
+        <v>2025-12-01</v>
       </c>
       <c r="C31">
+        <v>121</v>
+      </c>
+      <c r="D31">
+        <v>1.14</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>91</v>
+      </c>
+      <c r="H31">
         <v>97</v>
-      </c>
-      <c r="D31">
-        <v>2</v>
-      </c>
-      <c r="E31">
-        <v>2</v>
-      </c>
-      <c r="F31">
-        <v>10</v>
-      </c>
-      <c r="G31">
-        <v>92</v>
-      </c>
-      <c r="H31">
-        <v>95</v>
       </c>
     </row>
     <row r="32">
@@ -1216,19 +1216,19 @@
         <v>2025-12-07</v>
       </c>
       <c r="C32">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="D32">
-        <v>2.08</v>
+        <v>0.99</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G32">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="H32">
         <v>100</v>
@@ -1239,25 +1239,25 @@
         <v>SSN-21</v>
       </c>
       <c r="B33" t="str">
-        <v>2025-11-09</v>
+        <v>2025-11-17</v>
       </c>
       <c r="C33">
-        <v>171</v>
+        <v>54</v>
       </c>
       <c r="D33">
-        <v>10.75</v>
+        <v>6.35</v>
       </c>
       <c r="E33">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="F33">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="G33">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H33">
-        <v>72</v>
+        <v>88</v>
       </c>
     </row>
     <row r="34">
@@ -1268,22 +1268,22 @@
         <v>2025-12-07</v>
       </c>
       <c r="C34">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="D34">
-        <v>0.52</v>
+        <v>2.86</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G34">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="H34">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35">
@@ -1291,74 +1291,74 @@
         <v>SSN-23</v>
       </c>
       <c r="B35" t="str">
-        <v>2025-12-07</v>
+        <v>2025-12-06</v>
       </c>
       <c r="C35">
-        <v>193</v>
+        <v>115</v>
       </c>
       <c r="D35">
-        <v>0.66</v>
+        <v>4.84</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G35">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H35">
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>SSN-774</v>
+        <v>AS-39</v>
       </c>
       <c r="B36" t="str">
-        <v>2025-12-03</v>
+        <v>2025-11-15</v>
       </c>
       <c r="C36">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="D36">
-        <v>2.07</v>
+        <v>5.2</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F36">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G36">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H36">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>SSN-778</v>
+        <v>AS-40</v>
       </c>
       <c r="B37" t="str">
-        <v>2025-12-07</v>
+        <v>2025-12-08</v>
       </c>
       <c r="C37">
-        <v>86</v>
+        <v>140</v>
       </c>
       <c r="D37">
-        <v>1.24</v>
+        <v>1.11</v>
       </c>
       <c r="E37">
         <v>0</v>
       </c>
       <c r="F37">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G37">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H37">
         <v>98</v>
@@ -1366,181 +1366,181 @@
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>SSN-779</v>
+        <v>SSN-774</v>
       </c>
       <c r="B38" t="str">
-        <v>2025-12-04</v>
+        <v>2025-11-29</v>
       </c>
       <c r="C38">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="D38">
-        <v>2.58</v>
+        <v>4.64</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F38">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="G38">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H38">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>SSN-780</v>
+        <v>SSN-778</v>
       </c>
       <c r="B39" t="str">
-        <v>2025-12-04</v>
+        <v>2025-11-26</v>
       </c>
       <c r="C39">
-        <v>75</v>
+        <v>163</v>
       </c>
       <c r="D39">
-        <v>2.28</v>
+        <v>3.52</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F39">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="G39">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="H39">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>SSN-781</v>
+        <v>SSN-779</v>
       </c>
       <c r="B40" t="str">
-        <v>2025-12-04</v>
+        <v>2025-12-06</v>
       </c>
       <c r="C40">
-        <v>93</v>
+        <v>52</v>
       </c>
       <c r="D40">
-        <v>0.68</v>
+        <v>0.9</v>
       </c>
       <c r="E40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F40">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G40">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H40">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>SSN-795</v>
+        <v>SSN-780</v>
       </c>
       <c r="B41" t="str">
-        <v>2025-12-05</v>
+        <v>2025-12-08</v>
       </c>
       <c r="C41">
-        <v>187</v>
+        <v>55</v>
       </c>
       <c r="D41">
-        <v>12.19</v>
+        <v>2.07</v>
       </c>
       <c r="E41">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="F41">
-        <v>65</v>
+        <v>2</v>
       </c>
       <c r="G41">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="H41">
-        <v>81</v>
+        <v>95</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>SSN-753</v>
+        <v>SSN-781</v>
       </c>
       <c r="B42" t="str">
-        <v>2025-11-15</v>
+        <v>2025-11-25</v>
       </c>
       <c r="C42">
-        <v>181</v>
+        <v>67</v>
       </c>
       <c r="D42">
-        <v>10.11</v>
+        <v>1.33</v>
       </c>
       <c r="E42">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="F42">
-        <v>68</v>
+        <v>2</v>
       </c>
       <c r="G42">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="H42">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>SSN-756</v>
+        <v>SSN-795</v>
       </c>
       <c r="B43" t="str">
-        <v>2025-12-05</v>
+        <v>2025-12-06</v>
       </c>
       <c r="C43">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="D43">
-        <v>2.17</v>
+        <v>2.44</v>
       </c>
       <c r="E43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F43">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G43">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H43">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>SSN-764</v>
+        <v>SSN-753</v>
       </c>
       <c r="B44" t="str">
-        <v>2025-11-30</v>
+        <v>2025-12-08</v>
       </c>
       <c r="C44">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D44">
-        <v>0.92</v>
+        <v>2.25</v>
       </c>
       <c r="E44">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G44">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="H44">
         <v>99</v>
@@ -1548,51 +1548,51 @@
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>SSN-765</v>
+        <v>SSN-756</v>
       </c>
       <c r="B45" t="str">
-        <v>2025-11-16</v>
+        <v>2025-11-28</v>
       </c>
       <c r="C45">
-        <v>79</v>
+        <v>184</v>
       </c>
       <c r="D45">
-        <v>4.29</v>
+        <v>1.33</v>
       </c>
       <c r="E45">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F45">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G45">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="H45">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>SSN-791</v>
+        <v>SSN-764</v>
       </c>
       <c r="B46" t="str">
         <v>2025-12-07</v>
       </c>
       <c r="C46">
-        <v>173</v>
+        <v>200</v>
       </c>
       <c r="D46">
-        <v>1.31</v>
+        <v>0.59</v>
       </c>
       <c r="E46">
         <v>1</v>
       </c>
       <c r="F46">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G46">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H46">
         <v>99</v>
@@ -1600,345 +1600,397 @@
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>SSN-793</v>
+        <v>SSN-765</v>
       </c>
       <c r="B47" t="str">
-        <v>2025-12-08</v>
+        <v>2025-12-05</v>
       </c>
       <c r="C47">
-        <v>100</v>
+        <v>170</v>
       </c>
       <c r="D47">
-        <v>0.79</v>
+        <v>0.96</v>
       </c>
       <c r="E47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F47">
         <v>2</v>
       </c>
       <c r="G47">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="H47">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>SSN-750</v>
+        <v>SSN-791</v>
       </c>
       <c r="B48" t="str">
-        <v>2025-11-25</v>
+        <v>2025-11-29</v>
       </c>
       <c r="C48">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="D48">
-        <v>4.88</v>
+        <v>2.01</v>
       </c>
       <c r="E48">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F48">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G48">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="H48">
-        <v>85</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>SSN-751</v>
+        <v>SSN-793</v>
       </c>
       <c r="B49" t="str">
-        <v>2025-12-08</v>
+        <v>2025-12-02</v>
       </c>
       <c r="C49">
-        <v>174</v>
+        <v>52</v>
       </c>
       <c r="D49">
-        <v>1.13</v>
+        <v>6.17</v>
       </c>
       <c r="E49">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F49">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="G49">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H49">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>SSN-768</v>
+        <v>SSN-750</v>
       </c>
       <c r="B50" t="str">
-        <v>2025-12-08</v>
+        <v>2025-12-07</v>
       </c>
       <c r="C50">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="D50">
-        <v>6.8</v>
+        <v>1.35</v>
       </c>
       <c r="E50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F50">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="G50">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="H50">
-        <v>88</v>
+        <v>98</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>SSN-769</v>
+        <v>SSN-751</v>
       </c>
       <c r="B51" t="str">
         <v>2025-12-02</v>
       </c>
       <c r="C51">
-        <v>50</v>
+        <v>136</v>
       </c>
       <c r="D51">
-        <v>2.51</v>
+        <v>1.86</v>
       </c>
       <c r="E51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F51">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G51">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H51">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>SSN-785</v>
+        <v>SSN-768</v>
       </c>
       <c r="B52" t="str">
-        <v>2025-11-28</v>
+        <v>2025-11-29</v>
       </c>
       <c r="C52">
-        <v>144</v>
+        <v>118</v>
       </c>
       <c r="D52">
-        <v>9.69</v>
+        <v>9.34</v>
       </c>
       <c r="E52">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F52">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="G52">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="H52">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>SSGN-728</v>
+        <v>SSN-769</v>
       </c>
       <c r="B53" t="str">
-        <v>2025-12-07</v>
+        <v>2025-12-08</v>
       </c>
       <c r="C53">
-        <v>188</v>
+        <v>64</v>
       </c>
       <c r="D53">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="E53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F53">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G53">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H53">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>SSGN-729</v>
+        <v>SSN-785</v>
       </c>
       <c r="B54" t="str">
-        <v>2025-12-06</v>
+        <v>2025-12-08</v>
       </c>
       <c r="C54">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="D54">
-        <v>11.68</v>
+        <v>2.85</v>
       </c>
       <c r="E54">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="F54">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="G54">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="H54">
-        <v>82</v>
+        <v>98</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>SSBN-734</v>
+        <v>SSGN-728</v>
       </c>
       <c r="B55" t="str">
-        <v>2025-12-06</v>
+        <v>2025-12-07</v>
       </c>
       <c r="C55">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="D55">
-        <v>1.83</v>
+        <v>8.96</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F55">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="G55">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="H55">
-        <v>96</v>
+        <v>79</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>SSBN-736</v>
+        <v>SSGN-729</v>
       </c>
       <c r="B56" t="str">
-        <v>2025-12-02</v>
+        <v>2025-12-07</v>
       </c>
       <c r="C56">
-        <v>137</v>
+        <v>65</v>
       </c>
       <c r="D56">
-        <v>1.55</v>
+        <v>2.09</v>
       </c>
       <c r="E56">
         <v>0</v>
       </c>
       <c r="F56">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G56">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H56">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>SSBN-738</v>
+        <v>SSBN-734</v>
       </c>
       <c r="B57" t="str">
         <v>2025-12-07</v>
       </c>
       <c r="C57">
-        <v>197</v>
+        <v>89</v>
       </c>
       <c r="D57">
-        <v>1.32</v>
+        <v>2.32</v>
       </c>
       <c r="E57">
         <v>1</v>
       </c>
       <c r="F57">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G57">
+        <v>94</v>
+      </c>
+      <c r="H57">
         <v>95</v>
-      </c>
-      <c r="H57">
-        <v>100</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>SSBN-740</v>
+        <v>SSBN-736</v>
       </c>
       <c r="B58" t="str">
-        <v>2025-12-08</v>
+        <v>2025-12-07</v>
       </c>
       <c r="C58">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="D58">
-        <v>2.24</v>
+        <v>1.04</v>
       </c>
       <c r="E58">
         <v>0</v>
       </c>
       <c r="F58">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G58">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="H58">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>SSBN-742</v>
+        <v>SSBN-738</v>
       </c>
       <c r="B59" t="str">
         <v>2025-12-08</v>
       </c>
       <c r="C59">
-        <v>66</v>
+        <v>115</v>
       </c>
       <c r="D59">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="E59">
         <v>2</v>
       </c>
       <c r="F59">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G59">
+        <v>92</v>
+      </c>
+      <c r="H59">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>SSBN-740</v>
+      </c>
+      <c r="B60" t="str">
+        <v>2025-12-03</v>
+      </c>
+      <c r="C60">
+        <v>117</v>
+      </c>
+      <c r="D60">
+        <v>0.84</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>5</v>
+      </c>
+      <c r="G60">
+        <v>93</v>
+      </c>
+      <c r="H60">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>SSBN-742</v>
+      </c>
+      <c r="B61" t="str">
+        <v>2025-12-06</v>
+      </c>
+      <c r="C61">
+        <v>104</v>
+      </c>
+      <c r="D61">
+        <v>0.71</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61">
+        <v>3</v>
+      </c>
+      <c r="G61">
         <v>91</v>
       </c>
-      <c r="H59">
-        <v>97</v>
+      <c r="H61">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H59"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H61"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/test-data/VRAM-NIPR-Test.xlsx
+++ b/test-data/VRAM-NIPR-Test.xlsx
@@ -416,16 +416,16 @@
         <v>RA VPH</v>
       </c>
       <c r="E1" t="str">
-        <v>RA CRIT</v>
+        <v>RA Critical</v>
       </c>
       <c r="F1" t="str">
-        <v>RA HIGH</v>
+        <v>RA High</v>
       </c>
       <c r="G1" t="str">
         <v>Scan Integrity</v>
       </c>
       <c r="H1" t="str">
-        <v>Scan %</v>
+        <v>Percent Scanned</v>
       </c>
     </row>
     <row r="2">
@@ -433,25 +433,25 @@
         <v>SSN-775</v>
       </c>
       <c r="B2" t="str">
-        <v>2025-12-01</v>
+        <v>2025-11-06</v>
       </c>
       <c r="C2">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="D2">
-        <v>1.46</v>
+        <v>13.76</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="F2">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="G2">
-        <v>91</v>
+        <v>58</v>
       </c>
       <c r="H2">
-        <v>100</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3">
@@ -459,25 +459,25 @@
         <v>SSN-776</v>
       </c>
       <c r="B3" t="str">
-        <v>2025-12-05</v>
+        <v>2025-12-08</v>
       </c>
       <c r="C3">
-        <v>175</v>
+        <v>81</v>
       </c>
       <c r="D3">
-        <v>1.37</v>
+        <v>2.62</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="H3">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4">
@@ -485,25 +485,25 @@
         <v>SSN-777</v>
       </c>
       <c r="B4" t="str">
-        <v>2025-12-05</v>
+        <v>2025-11-22</v>
       </c>
       <c r="C4">
-        <v>136</v>
+        <v>86</v>
       </c>
       <c r="D4">
-        <v>2.93</v>
+        <v>7.59</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="G4">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="H4">
-        <v>100</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5">
@@ -511,25 +511,25 @@
         <v>SSN-786</v>
       </c>
       <c r="B5" t="str">
-        <v>2025-12-07</v>
+        <v>2025-12-08</v>
       </c>
       <c r="C5">
-        <v>62</v>
+        <v>131</v>
       </c>
       <c r="D5">
-        <v>2.98</v>
+        <v>1.18</v>
       </c>
       <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
         <v>2</v>
       </c>
-      <c r="F5">
-        <v>3</v>
-      </c>
       <c r="G5">
+        <v>96</v>
+      </c>
+      <c r="H5">
         <v>98</v>
-      </c>
-      <c r="H5">
-        <v>96</v>
       </c>
     </row>
     <row r="6">
@@ -537,25 +537,25 @@
         <v>SSN-792</v>
       </c>
       <c r="B6" t="str">
-        <v>2025-12-04</v>
+        <v>2025-12-07</v>
       </c>
       <c r="C6">
-        <v>119</v>
+        <v>190</v>
       </c>
       <c r="D6">
-        <v>1.63</v>
+        <v>2.13</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="H6">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7">
@@ -563,25 +563,25 @@
         <v>SSN-794</v>
       </c>
       <c r="B7" t="str">
-        <v>2025-12-07</v>
+        <v>2025-12-06</v>
       </c>
       <c r="C7">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D7">
-        <v>1.24</v>
+        <v>1.49</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G7">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="H7">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8">
@@ -589,25 +589,25 @@
         <v>SSN-762</v>
       </c>
       <c r="B8" t="str">
-        <v>2025-12-01</v>
+        <v>2025-11-27</v>
       </c>
       <c r="C8">
-        <v>187</v>
+        <v>139</v>
       </c>
       <c r="D8">
-        <v>0.7</v>
+        <v>6.5</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F8">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G8">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="H8">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9">
@@ -615,22 +615,22 @@
         <v>SSN-763</v>
       </c>
       <c r="B9" t="str">
-        <v>2025-12-08</v>
+        <v>2025-12-06</v>
       </c>
       <c r="C9">
-        <v>157</v>
+        <v>68</v>
       </c>
       <c r="D9">
-        <v>2.5</v>
+        <v>1.43</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G9">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="H9">
         <v>98</v>
@@ -641,25 +641,25 @@
         <v>SSN-766</v>
       </c>
       <c r="B10" t="str">
-        <v>2025-11-27</v>
+        <v>2025-11-25</v>
       </c>
       <c r="C10">
-        <v>55</v>
+        <v>153</v>
       </c>
       <c r="D10">
-        <v>4.67</v>
+        <v>3.09</v>
       </c>
       <c r="E10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="G10">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H10">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11">
@@ -667,25 +667,25 @@
         <v>SSN-771</v>
       </c>
       <c r="B11" t="str">
-        <v>2025-12-02</v>
+        <v>2025-12-07</v>
       </c>
       <c r="C11">
-        <v>141</v>
+        <v>107</v>
       </c>
       <c r="D11">
-        <v>2.61</v>
+        <v>0.56</v>
       </c>
       <c r="E11">
         <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H11">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12">
@@ -693,25 +693,25 @@
         <v>SSN-772</v>
       </c>
       <c r="B12" t="str">
-        <v>2025-11-14</v>
+        <v>2025-12-08</v>
       </c>
       <c r="C12">
-        <v>145</v>
+        <v>74</v>
       </c>
       <c r="D12">
-        <v>11.85</v>
+        <v>2.6</v>
       </c>
       <c r="E12">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>80</v>
+        <v>5</v>
       </c>
       <c r="G12">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="H12">
-        <v>83</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13">
@@ -719,25 +719,25 @@
         <v>SSN-773</v>
       </c>
       <c r="B13" t="str">
-        <v>2025-12-01</v>
+        <v>2025-12-05</v>
       </c>
       <c r="C13">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="D13">
-        <v>1.54</v>
+        <v>1.85</v>
       </c>
       <c r="E13">
         <v>2</v>
       </c>
       <c r="F13">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G13">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H13">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14">
@@ -745,25 +745,25 @@
         <v>SSN-752</v>
       </c>
       <c r="B14" t="str">
-        <v>2025-12-05</v>
+        <v>2025-11-25</v>
       </c>
       <c r="C14">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="D14">
-        <v>6.43</v>
+        <v>2.49</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="G14">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="H14">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15">
@@ -774,22 +774,22 @@
         <v>2025-12-08</v>
       </c>
       <c r="C15">
-        <v>147</v>
+        <v>181</v>
       </c>
       <c r="D15">
-        <v>1.59</v>
+        <v>1.87</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="H15">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16">
@@ -797,22 +797,22 @@
         <v>SSN-758</v>
       </c>
       <c r="B16" t="str">
-        <v>2025-12-08</v>
+        <v>2025-12-04</v>
       </c>
       <c r="C16">
-        <v>112</v>
+        <v>180</v>
       </c>
       <c r="D16">
-        <v>0.93</v>
+        <v>1.35</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G16">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H16">
         <v>99</v>
@@ -823,25 +823,25 @@
         <v>SSN-767</v>
       </c>
       <c r="B17" t="str">
-        <v>2025-12-08</v>
+        <v>2025-12-07</v>
       </c>
       <c r="C17">
         <v>161</v>
       </c>
       <c r="D17">
-        <v>1.76</v>
+        <v>2.16</v>
       </c>
       <c r="E17">
         <v>2</v>
       </c>
       <c r="F17">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G17">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H17">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18">
@@ -849,25 +849,25 @@
         <v>SSN-722</v>
       </c>
       <c r="B18" t="str">
-        <v>2025-12-07</v>
+        <v>2025-12-05</v>
       </c>
       <c r="C18">
-        <v>121</v>
+        <v>182</v>
       </c>
       <c r="D18">
-        <v>2.7</v>
+        <v>0.97</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18">
         <v>4</v>
       </c>
       <c r="G18">
+        <v>90</v>
+      </c>
+      <c r="H18">
         <v>99</v>
-      </c>
-      <c r="H18">
-        <v>100</v>
       </c>
     </row>
     <row r="19">
@@ -875,25 +875,25 @@
         <v>SSN-759</v>
       </c>
       <c r="B19" t="str">
-        <v>2025-12-03</v>
+        <v>2025-11-07</v>
       </c>
       <c r="C19">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="D19">
-        <v>2.55</v>
+        <v>9.02</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F19">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="G19">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="H19">
-        <v>100</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20">
@@ -901,19 +901,19 @@
         <v>SSN-760</v>
       </c>
       <c r="B20" t="str">
-        <v>2025-12-06</v>
+        <v>2025-12-05</v>
       </c>
       <c r="C20">
-        <v>126</v>
+        <v>185</v>
       </c>
       <c r="D20">
-        <v>0.96</v>
+        <v>2.55</v>
       </c>
       <c r="E20">
         <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G20">
         <v>99</v>
@@ -927,22 +927,22 @@
         <v>SSN-761</v>
       </c>
       <c r="B21" t="str">
-        <v>2025-12-04</v>
+        <v>2025-11-04</v>
       </c>
       <c r="C21">
-        <v>51</v>
+        <v>142</v>
       </c>
       <c r="D21">
-        <v>11.29</v>
+        <v>13.37</v>
       </c>
       <c r="E21">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F21">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G21">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="H21">
         <v>83</v>
@@ -953,25 +953,25 @@
         <v>SSN-783</v>
       </c>
       <c r="B22" t="str">
-        <v>2025-11-25</v>
+        <v>2025-12-01</v>
       </c>
       <c r="C22">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="D22">
-        <v>1.12</v>
+        <v>0.98</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G22">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H22">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23">
@@ -982,22 +982,22 @@
         <v>2025-12-07</v>
       </c>
       <c r="C23">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="D23">
-        <v>1.69</v>
+        <v>0.6</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H23">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24">
@@ -1005,25 +1005,25 @@
         <v>SSBN-731</v>
       </c>
       <c r="B24" t="str">
-        <v>2025-12-06</v>
+        <v>2025-12-08</v>
       </c>
       <c r="C24">
-        <v>56</v>
+        <v>139</v>
       </c>
       <c r="D24">
-        <v>2.22</v>
+        <v>2.36</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G24">
+        <v>98</v>
+      </c>
+      <c r="H24">
         <v>95</v>
-      </c>
-      <c r="H24">
-        <v>96</v>
       </c>
     </row>
     <row r="25">
@@ -1034,22 +1034,22 @@
         <v>2025-12-05</v>
       </c>
       <c r="C25">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D25">
-        <v>2.36</v>
+        <v>2.6</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H25">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26">
@@ -1057,25 +1057,25 @@
         <v>SSBN-739</v>
       </c>
       <c r="B26" t="str">
-        <v>2025-12-06</v>
+        <v>2025-12-07</v>
       </c>
       <c r="C26">
-        <v>112</v>
+        <v>191</v>
       </c>
       <c r="D26">
-        <v>0.97</v>
+        <v>2.06</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H26">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27">
@@ -1083,25 +1083,25 @@
         <v>SSBN-741</v>
       </c>
       <c r="B27" t="str">
-        <v>2025-12-01</v>
+        <v>2025-11-25</v>
       </c>
       <c r="C27">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="D27">
-        <v>2.44</v>
+        <v>1.44</v>
       </c>
       <c r="E27">
         <v>1</v>
       </c>
       <c r="F27">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G27">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H27">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28">
@@ -1109,25 +1109,25 @@
         <v>SSBN-743</v>
       </c>
       <c r="B28" t="str">
-        <v>2025-12-03</v>
+        <v>2025-12-02</v>
       </c>
       <c r="C28">
-        <v>180</v>
+        <v>148</v>
       </c>
       <c r="D28">
-        <v>6.87</v>
+        <v>1.01</v>
       </c>
       <c r="E28">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F28">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G28">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="H28">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29">
@@ -1135,25 +1135,25 @@
         <v>SSGN-726</v>
       </c>
       <c r="B29" t="str">
-        <v>2025-11-20</v>
+        <v>2025-11-18</v>
       </c>
       <c r="C29">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="D29">
-        <v>12.2</v>
+        <v>10.05</v>
       </c>
       <c r="E29">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F29">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="G29">
+        <v>63</v>
+      </c>
+      <c r="H29">
         <v>73</v>
-      </c>
-      <c r="H29">
-        <v>70</v>
       </c>
     </row>
     <row r="30">
@@ -1161,25 +1161,25 @@
         <v>SSGN-727</v>
       </c>
       <c r="B30" t="str">
-        <v>2025-11-29</v>
+        <v>2025-11-28</v>
       </c>
       <c r="C30">
-        <v>193</v>
+        <v>67</v>
       </c>
       <c r="D30">
-        <v>5.7</v>
+        <v>2.75</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="G30">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H30">
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31">
@@ -1187,22 +1187,22 @@
         <v>SSBN-735</v>
       </c>
       <c r="B31" t="str">
-        <v>2025-12-01</v>
+        <v>2025-12-07</v>
       </c>
       <c r="C31">
-        <v>121</v>
+        <v>163</v>
       </c>
       <c r="D31">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G31">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="H31">
         <v>97</v>
@@ -1213,25 +1213,25 @@
         <v>SSBN-737</v>
       </c>
       <c r="B32" t="str">
-        <v>2025-12-07</v>
+        <v>2025-12-01</v>
       </c>
       <c r="C32">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="D32">
-        <v>0.99</v>
+        <v>1.33</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G32">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="H32">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="33">
@@ -1239,25 +1239,25 @@
         <v>SSN-21</v>
       </c>
       <c r="B33" t="str">
-        <v>2025-11-17</v>
+        <v>2025-11-27</v>
       </c>
       <c r="C33">
-        <v>54</v>
+        <v>131</v>
       </c>
       <c r="D33">
-        <v>6.35</v>
+        <v>10.03</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="F33">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="G33">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="H33">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34">
@@ -1265,25 +1265,25 @@
         <v>SSN-22</v>
       </c>
       <c r="B34" t="str">
-        <v>2025-12-07</v>
+        <v>2025-12-03</v>
       </c>
       <c r="C34">
-        <v>198</v>
+        <v>53</v>
       </c>
       <c r="D34">
-        <v>2.86</v>
+        <v>6</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F34">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="G34">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="H34">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="35">
@@ -1291,25 +1291,25 @@
         <v>SSN-23</v>
       </c>
       <c r="B35" t="str">
-        <v>2025-12-06</v>
+        <v>2025-11-23</v>
       </c>
       <c r="C35">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="D35">
-        <v>4.84</v>
+        <v>5.06</v>
       </c>
       <c r="E35">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F35">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="G35">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="H35">
-        <v>85</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36">
@@ -1317,25 +1317,25 @@
         <v>AS-39</v>
       </c>
       <c r="B36" t="str">
-        <v>2025-11-15</v>
+        <v>2025-12-08</v>
       </c>
       <c r="C36">
-        <v>139</v>
+        <v>182</v>
       </c>
       <c r="D36">
-        <v>5.2</v>
+        <v>1.43</v>
       </c>
       <c r="E36">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G36">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="H36">
-        <v>86</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37">
@@ -1343,25 +1343,25 @@
         <v>AS-40</v>
       </c>
       <c r="B37" t="str">
-        <v>2025-12-08</v>
+        <v>2025-12-02</v>
       </c>
       <c r="C37">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="D37">
-        <v>1.11</v>
+        <v>1.46</v>
       </c>
       <c r="E37">
         <v>0</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G37">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="H37">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="38">
@@ -1369,25 +1369,25 @@
         <v>SSN-774</v>
       </c>
       <c r="B38" t="str">
-        <v>2025-11-29</v>
+        <v>2025-12-06</v>
       </c>
       <c r="C38">
-        <v>170</v>
+        <v>117</v>
       </c>
       <c r="D38">
-        <v>4.64</v>
+        <v>1.7</v>
       </c>
       <c r="E38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="G38">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="H38">
-        <v>88</v>
+        <v>95</v>
       </c>
     </row>
     <row r="39">
@@ -1395,25 +1395,25 @@
         <v>SSN-778</v>
       </c>
       <c r="B39" t="str">
-        <v>2025-11-26</v>
+        <v>2025-12-04</v>
       </c>
       <c r="C39">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="D39">
-        <v>3.52</v>
+        <v>2.38</v>
       </c>
       <c r="E39">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F39">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G39">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="H39">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="40">
@@ -1421,22 +1421,22 @@
         <v>SSN-779</v>
       </c>
       <c r="B40" t="str">
-        <v>2025-12-06</v>
+        <v>2025-11-28</v>
       </c>
       <c r="C40">
-        <v>52</v>
+        <v>185</v>
       </c>
       <c r="D40">
-        <v>0.9</v>
+        <v>1.91</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G40">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H40">
         <v>95</v>
@@ -1450,19 +1450,19 @@
         <v>2025-12-08</v>
       </c>
       <c r="C41">
-        <v>55</v>
+        <v>153</v>
       </c>
       <c r="D41">
-        <v>2.07</v>
+        <v>2.03</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G41">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="H41">
         <v>95</v>
@@ -1473,19 +1473,19 @@
         <v>SSN-781</v>
       </c>
       <c r="B42" t="str">
-        <v>2025-11-25</v>
+        <v>2025-12-04</v>
       </c>
       <c r="C42">
-        <v>67</v>
+        <v>104</v>
       </c>
       <c r="D42">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="E42">
         <v>1</v>
       </c>
       <c r="F42">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G42">
         <v>99</v>
@@ -1499,25 +1499,25 @@
         <v>SSN-795</v>
       </c>
       <c r="B43" t="str">
-        <v>2025-12-06</v>
+        <v>2025-12-08</v>
       </c>
       <c r="C43">
-        <v>134</v>
+        <v>168</v>
       </c>
       <c r="D43">
-        <v>2.44</v>
+        <v>2.06</v>
       </c>
       <c r="E43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G43">
         <v>90</v>
       </c>
       <c r="H43">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="44">
@@ -1525,22 +1525,22 @@
         <v>SSN-753</v>
       </c>
       <c r="B44" t="str">
-        <v>2025-12-08</v>
+        <v>2025-11-29</v>
       </c>
       <c r="C44">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D44">
-        <v>2.25</v>
+        <v>1.54</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44">
         <v>8</v>
       </c>
       <c r="G44">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="H44">
         <v>99</v>
@@ -1551,25 +1551,25 @@
         <v>SSN-756</v>
       </c>
       <c r="B45" t="str">
-        <v>2025-11-28</v>
+        <v>2025-12-07</v>
       </c>
       <c r="C45">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="D45">
-        <v>1.33</v>
+        <v>0.84</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G45">
         <v>90</v>
       </c>
       <c r="H45">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="46">
@@ -1577,25 +1577,25 @@
         <v>SSN-764</v>
       </c>
       <c r="B46" t="str">
-        <v>2025-12-07</v>
+        <v>2025-12-02</v>
       </c>
       <c r="C46">
-        <v>200</v>
+        <v>118</v>
       </c>
       <c r="D46">
-        <v>0.59</v>
+        <v>2.34</v>
       </c>
       <c r="E46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F46">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G46">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H46">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="47">
@@ -1603,25 +1603,25 @@
         <v>SSN-765</v>
       </c>
       <c r="B47" t="str">
-        <v>2025-12-05</v>
+        <v>2025-12-08</v>
       </c>
       <c r="C47">
         <v>170</v>
       </c>
       <c r="D47">
-        <v>0.96</v>
+        <v>1.43</v>
       </c>
       <c r="E47">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G47">
+        <v>93</v>
+      </c>
+      <c r="H47">
         <v>95</v>
-      </c>
-      <c r="H47">
-        <v>96</v>
       </c>
     </row>
     <row r="48">
@@ -1629,25 +1629,25 @@
         <v>SSN-791</v>
       </c>
       <c r="B48" t="str">
-        <v>2025-11-29</v>
+        <v>2025-10-24</v>
       </c>
       <c r="C48">
-        <v>162</v>
+        <v>80</v>
       </c>
       <c r="D48">
-        <v>2.01</v>
+        <v>11.18</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="F48">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="G48">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="H48">
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
     <row r="49">
@@ -1655,25 +1655,25 @@
         <v>SSN-793</v>
       </c>
       <c r="B49" t="str">
-        <v>2025-12-02</v>
+        <v>2025-12-07</v>
       </c>
       <c r="C49">
-        <v>52</v>
+        <v>174</v>
       </c>
       <c r="D49">
-        <v>6.17</v>
+        <v>2.43</v>
       </c>
       <c r="E49">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F49">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="G49">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H49">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="50">
@@ -1681,25 +1681,25 @@
         <v>SSN-750</v>
       </c>
       <c r="B50" t="str">
-        <v>2025-12-07</v>
+        <v>2025-11-08</v>
       </c>
       <c r="C50">
-        <v>174</v>
+        <v>72</v>
       </c>
       <c r="D50">
-        <v>1.35</v>
+        <v>11.03</v>
       </c>
       <c r="E50">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="F50">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="G50">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="H50">
-        <v>98</v>
+        <v>79</v>
       </c>
     </row>
     <row r="51">
@@ -1707,25 +1707,25 @@
         <v>SSN-751</v>
       </c>
       <c r="B51" t="str">
-        <v>2025-12-02</v>
+        <v>2025-12-05</v>
       </c>
       <c r="C51">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="D51">
-        <v>1.86</v>
+        <v>2.08</v>
       </c>
       <c r="E51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F51">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G51">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="H51">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="52">
@@ -1733,25 +1733,25 @@
         <v>SSN-768</v>
       </c>
       <c r="B52" t="str">
-        <v>2025-11-29</v>
+        <v>2025-11-26</v>
       </c>
       <c r="C52">
-        <v>118</v>
+        <v>166</v>
       </c>
       <c r="D52">
-        <v>9.34</v>
+        <v>2.85</v>
       </c>
       <c r="E52">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F52">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="G52">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="H52">
-        <v>80</v>
+        <v>95</v>
       </c>
     </row>
     <row r="53">
@@ -1759,25 +1759,25 @@
         <v>SSN-769</v>
       </c>
       <c r="B53" t="str">
-        <v>2025-12-08</v>
+        <v>2025-11-30</v>
       </c>
       <c r="C53">
-        <v>64</v>
+        <v>110</v>
       </c>
       <c r="D53">
-        <v>1.87</v>
+        <v>2.38</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G53">
+        <v>99</v>
+      </c>
+      <c r="H53">
         <v>98</v>
-      </c>
-      <c r="H53">
-        <v>97</v>
       </c>
     </row>
     <row r="54">
@@ -1788,22 +1788,22 @@
         <v>2025-12-08</v>
       </c>
       <c r="C54">
-        <v>158</v>
+        <v>85</v>
       </c>
       <c r="D54">
-        <v>2.85</v>
+        <v>0.72</v>
       </c>
       <c r="E54">
         <v>2</v>
       </c>
       <c r="F54">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G54">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="H54">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="55">
@@ -1811,25 +1811,25 @@
         <v>SSGN-728</v>
       </c>
       <c r="B55" t="str">
-        <v>2025-12-07</v>
+        <v>2025-12-06</v>
       </c>
       <c r="C55">
-        <v>52</v>
+        <v>138</v>
       </c>
       <c r="D55">
-        <v>8.96</v>
+        <v>0.5</v>
       </c>
       <c r="E55">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F55">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="G55">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="H55">
-        <v>79</v>
+        <v>97</v>
       </c>
     </row>
     <row r="56">
@@ -1837,25 +1837,25 @@
         <v>SSGN-729</v>
       </c>
       <c r="B56" t="str">
-        <v>2025-12-07</v>
+        <v>2025-12-01</v>
       </c>
       <c r="C56">
-        <v>65</v>
+        <v>141</v>
       </c>
       <c r="D56">
-        <v>2.09</v>
+        <v>2.65</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G56">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="H56">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="57">
@@ -1863,25 +1863,25 @@
         <v>SSBN-734</v>
       </c>
       <c r="B57" t="str">
-        <v>2025-12-07</v>
+        <v>2025-12-08</v>
       </c>
       <c r="C57">
-        <v>89</v>
+        <v>154</v>
       </c>
       <c r="D57">
-        <v>2.32</v>
+        <v>2.71</v>
       </c>
       <c r="E57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F57">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G57">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H57">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="58">
@@ -1889,25 +1889,25 @@
         <v>SSBN-736</v>
       </c>
       <c r="B58" t="str">
-        <v>2025-12-07</v>
+        <v>2025-11-30</v>
       </c>
       <c r="C58">
-        <v>151</v>
+        <v>57</v>
       </c>
       <c r="D58">
-        <v>1.04</v>
+        <v>6.9</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F58">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="G58">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="H58">
-        <v>99</v>
+        <v>88</v>
       </c>
     </row>
     <row r="59">
@@ -1915,22 +1915,22 @@
         <v>SSBN-738</v>
       </c>
       <c r="B59" t="str">
-        <v>2025-12-08</v>
+        <v>2025-12-04</v>
       </c>
       <c r="C59">
-        <v>115</v>
+        <v>149</v>
       </c>
       <c r="D59">
-        <v>2.06</v>
+        <v>0.7</v>
       </c>
       <c r="E59">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F59">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G59">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="H59">
         <v>96</v>
@@ -1944,22 +1944,22 @@
         <v>2025-12-03</v>
       </c>
       <c r="C60">
-        <v>117</v>
+        <v>172</v>
       </c>
       <c r="D60">
-        <v>0.84</v>
+        <v>2.54</v>
       </c>
       <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60">
         <v>0</v>
       </c>
-      <c r="F60">
-        <v>5</v>
-      </c>
       <c r="G60">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="H60">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="61">
@@ -1967,25 +1967,25 @@
         <v>SSBN-742</v>
       </c>
       <c r="B61" t="str">
-        <v>2025-12-06</v>
+        <v>2025-12-04</v>
       </c>
       <c r="C61">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="D61">
-        <v>0.71</v>
+        <v>6.19</v>
       </c>
       <c r="E61">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F61">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="G61">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H61">
-        <v>99</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/test-data/VRAM-NIPR-Test.xlsx
+++ b/test-data/VRAM-NIPR-Test.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H61"/>
+  <dimension ref="A1:I61"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -427,31 +427,37 @@
       <c r="H1" t="str">
         <v>Percent Scanned</v>
       </c>
+      <c r="I1" t="str">
+        <v>Scan Exempt</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
         <v>SSN-775</v>
       </c>
       <c r="B2" t="str">
-        <v>2025-11-06</v>
+        <v>2025-12-03</v>
       </c>
       <c r="C2">
-        <v>127</v>
+        <v>196</v>
       </c>
       <c r="D2">
-        <v>13.76</v>
+        <v>2.33</v>
       </c>
       <c r="E2">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="G2">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="H2">
-        <v>76</v>
+        <v>96</v>
+      </c>
+      <c r="I2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -459,25 +465,28 @@
         <v>SSN-776</v>
       </c>
       <c r="B3" t="str">
-        <v>2025-12-08</v>
+        <v>2025-12-07</v>
       </c>
       <c r="C3">
-        <v>81</v>
+        <v>128</v>
       </c>
       <c r="D3">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G3">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="H3">
         <v>99</v>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -485,25 +494,28 @@
         <v>SSN-777</v>
       </c>
       <c r="B4" t="str">
-        <v>2025-11-22</v>
+        <v>2025-12-07</v>
       </c>
       <c r="C4">
-        <v>86</v>
+        <v>137</v>
       </c>
       <c r="D4">
-        <v>7.59</v>
+        <v>0.69</v>
       </c>
       <c r="E4">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="G4">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="H4">
-        <v>84</v>
+        <v>99</v>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -514,22 +526,25 @@
         <v>2025-12-08</v>
       </c>
       <c r="C5">
-        <v>131</v>
+        <v>60</v>
       </c>
       <c r="D5">
-        <v>1.18</v>
+        <v>6.54</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="G5">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="H5">
-        <v>98</v>
+        <v>88</v>
+      </c>
+      <c r="I5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -537,25 +552,28 @@
         <v>SSN-792</v>
       </c>
       <c r="B6" t="str">
-        <v>2025-12-07</v>
+        <v>2025-11-27</v>
       </c>
       <c r="C6">
-        <v>190</v>
+        <v>53</v>
       </c>
       <c r="D6">
-        <v>2.13</v>
+        <v>3.22</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G6">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="H6">
-        <v>100</v>
+        <v>86</v>
+      </c>
+      <c r="I6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -563,25 +581,28 @@
         <v>SSN-794</v>
       </c>
       <c r="B7" t="str">
-        <v>2025-12-06</v>
+        <v>2025-12-03</v>
       </c>
       <c r="C7">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="D7">
-        <v>1.49</v>
+        <v>2.11</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G7">
         <v>100</v>
       </c>
       <c r="H7">
-        <v>95</v>
+        <v>96</v>
+      </c>
+      <c r="I7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -589,25 +610,28 @@
         <v>SSN-762</v>
       </c>
       <c r="B8" t="str">
-        <v>2025-11-27</v>
+        <v>2025-12-01</v>
       </c>
       <c r="C8">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="D8">
-        <v>6.5</v>
+        <v>2.23</v>
       </c>
       <c r="E8">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G8">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="H8">
-        <v>92</v>
+        <v>99</v>
+      </c>
+      <c r="I8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -615,25 +639,28 @@
         <v>SSN-763</v>
       </c>
       <c r="B9" t="str">
-        <v>2025-12-06</v>
+        <v>2025-12-03</v>
       </c>
       <c r="C9">
-        <v>68</v>
+        <v>115</v>
       </c>
       <c r="D9">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G9">
+        <v>91</v>
+      </c>
+      <c r="H9">
         <v>100</v>
       </c>
-      <c r="H9">
-        <v>98</v>
+      <c r="I9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -641,25 +668,28 @@
         <v>SSN-766</v>
       </c>
       <c r="B10" t="str">
-        <v>2025-11-25</v>
+        <v>2025-12-07</v>
       </c>
       <c r="C10">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D10">
-        <v>3.09</v>
+        <v>1.54</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="G10">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="H10">
-        <v>85</v>
+        <v>95</v>
+      </c>
+      <c r="I10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -667,25 +697,28 @@
         <v>SSN-771</v>
       </c>
       <c r="B11" t="str">
-        <v>2025-12-07</v>
+        <v>2025-10-24</v>
       </c>
       <c r="C11">
-        <v>107</v>
+        <v>65</v>
       </c>
       <c r="D11">
-        <v>0.56</v>
+        <v>9.28</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="F11">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="G11">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="H11">
-        <v>95</v>
+        <v>82</v>
+      </c>
+      <c r="I11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -693,25 +726,28 @@
         <v>SSN-772</v>
       </c>
       <c r="B12" t="str">
-        <v>2025-12-08</v>
+        <v>2025-10-28</v>
       </c>
       <c r="C12">
+        <v>110</v>
+      </c>
+      <c r="D12">
+        <v>8.67</v>
+      </c>
+      <c r="E12">
+        <v>19</v>
+      </c>
+      <c r="F12">
         <v>74</v>
       </c>
-      <c r="D12">
-        <v>2.6</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>5</v>
-      </c>
       <c r="G12">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="H12">
-        <v>97</v>
+        <v>85</v>
+      </c>
+      <c r="I12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -719,25 +755,28 @@
         <v>SSN-773</v>
       </c>
       <c r="B13" t="str">
-        <v>2025-12-05</v>
+        <v>2025-12-07</v>
       </c>
       <c r="C13">
-        <v>179</v>
+        <v>82</v>
       </c>
       <c r="D13">
-        <v>1.85</v>
+        <v>1.58</v>
       </c>
       <c r="E13">
         <v>2</v>
       </c>
       <c r="F13">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G13">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H13">
-        <v>98</v>
+        <v>96</v>
+      </c>
+      <c r="I13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -745,25 +784,28 @@
         <v>SSN-752</v>
       </c>
       <c r="B14" t="str">
-        <v>2025-11-25</v>
+        <v>2025-11-15</v>
       </c>
       <c r="C14">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="D14">
-        <v>2.49</v>
+        <v>7.56</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="F14">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="G14">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="H14">
-        <v>96</v>
+        <v>76</v>
+      </c>
+      <c r="I14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -771,25 +813,28 @@
         <v>SSN-754</v>
       </c>
       <c r="B15" t="str">
-        <v>2025-12-08</v>
+        <v>2025-12-01</v>
       </c>
       <c r="C15">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D15">
-        <v>1.87</v>
+        <v>0.62</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G15">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H15">
-        <v>96</v>
+        <v>100</v>
+      </c>
+      <c r="I15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -800,22 +845,25 @@
         <v>2025-12-04</v>
       </c>
       <c r="C16">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="D16">
-        <v>1.35</v>
+        <v>2.6</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G16">
+        <v>98</v>
+      </c>
+      <c r="H16">
         <v>100</v>
       </c>
-      <c r="H16">
-        <v>99</v>
+      <c r="I16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -823,25 +871,28 @@
         <v>SSN-767</v>
       </c>
       <c r="B17" t="str">
-        <v>2025-12-07</v>
+        <v>2025-11-15</v>
       </c>
       <c r="C17">
-        <v>161</v>
+        <v>119</v>
       </c>
       <c r="D17">
-        <v>2.16</v>
+        <v>13.73</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="F17">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="G17">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="H17">
-        <v>98</v>
+        <v>70</v>
+      </c>
+      <c r="I17" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -849,25 +900,28 @@
         <v>SSN-722</v>
       </c>
       <c r="B18" t="str">
-        <v>2025-12-05</v>
+        <v>2025-12-08</v>
       </c>
       <c r="C18">
-        <v>182</v>
+        <v>152</v>
       </c>
       <c r="D18">
-        <v>0.97</v>
+        <v>1.02</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G18">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="H18">
-        <v>99</v>
+        <v>95</v>
+      </c>
+      <c r="I18" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -875,25 +929,28 @@
         <v>SSN-759</v>
       </c>
       <c r="B19" t="str">
-        <v>2025-11-07</v>
+        <v>2025-12-06</v>
       </c>
       <c r="C19">
-        <v>184</v>
+        <v>93</v>
       </c>
       <c r="D19">
-        <v>9.02</v>
+        <v>2.47</v>
       </c>
       <c r="E19">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="G19">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="H19">
-        <v>77</v>
+        <v>95</v>
+      </c>
+      <c r="I19" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -901,13 +958,13 @@
         <v>SSN-760</v>
       </c>
       <c r="B20" t="str">
-        <v>2025-12-05</v>
+        <v>2025-12-04</v>
       </c>
       <c r="C20">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D20">
-        <v>2.55</v>
+        <v>1.78</v>
       </c>
       <c r="E20">
         <v>2</v>
@@ -916,10 +973,13 @@
         <v>8</v>
       </c>
       <c r="G20">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="H20">
         <v>99</v>
+      </c>
+      <c r="I20" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -927,25 +987,28 @@
         <v>SSN-761</v>
       </c>
       <c r="B21" t="str">
-        <v>2025-11-04</v>
+        <v>2025-12-08</v>
       </c>
       <c r="C21">
-        <v>142</v>
+        <v>112</v>
       </c>
       <c r="D21">
-        <v>13.37</v>
+        <v>2.17</v>
       </c>
       <c r="E21">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="G21">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="H21">
-        <v>83</v>
+        <v>99</v>
+      </c>
+      <c r="I21" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -953,25 +1016,28 @@
         <v>SSN-783</v>
       </c>
       <c r="B22" t="str">
-        <v>2025-12-01</v>
+        <v>2025-12-08</v>
       </c>
       <c r="C22">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="D22">
-        <v>0.98</v>
+        <v>3.38</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F22">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="G22">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="H22">
-        <v>97</v>
+        <v>94</v>
+      </c>
+      <c r="I22" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -982,22 +1048,25 @@
         <v>2025-12-07</v>
       </c>
       <c r="C23">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="D23">
-        <v>0.6</v>
+        <v>1.27</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G23">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H23">
-        <v>98</v>
+        <v>96</v>
+      </c>
+      <c r="I23" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1005,25 +1074,28 @@
         <v>SSBN-731</v>
       </c>
       <c r="B24" t="str">
-        <v>2025-12-08</v>
+        <v>2025-11-28</v>
       </c>
       <c r="C24">
-        <v>139</v>
+        <v>98</v>
       </c>
       <c r="D24">
-        <v>2.36</v>
+        <v>5.33</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F24">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="G24">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="H24">
-        <v>95</v>
+        <v>87</v>
+      </c>
+      <c r="I24" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1031,25 +1103,28 @@
         <v>SSBN-733</v>
       </c>
       <c r="B25" t="str">
-        <v>2025-12-05</v>
+        <v>2025-12-07</v>
       </c>
       <c r="C25">
-        <v>122</v>
+        <v>175</v>
       </c>
       <c r="D25">
-        <v>2.6</v>
+        <v>6.19</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="G25">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="H25">
-        <v>96</v>
+        <v>94</v>
+      </c>
+      <c r="I25" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1057,25 +1132,28 @@
         <v>SSBN-739</v>
       </c>
       <c r="B26" t="str">
-        <v>2025-12-07</v>
+        <v>2025-12-05</v>
       </c>
       <c r="C26">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="D26">
-        <v>2.06</v>
+        <v>6.87</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G26">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="H26">
-        <v>100</v>
+        <v>85</v>
+      </c>
+      <c r="I26" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1083,25 +1161,28 @@
         <v>SSBN-741</v>
       </c>
       <c r="B27" t="str">
-        <v>2025-11-25</v>
+        <v>2025-11-28</v>
       </c>
       <c r="C27">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D27">
-        <v>1.44</v>
+        <v>8.39</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F27">
-        <v>3</v>
+        <v>65</v>
       </c>
       <c r="G27">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="H27">
-        <v>95</v>
+        <v>78</v>
+      </c>
+      <c r="I27" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1109,25 +1190,28 @@
         <v>SSBN-743</v>
       </c>
       <c r="B28" t="str">
-        <v>2025-12-02</v>
+        <v>2025-12-04</v>
       </c>
       <c r="C28">
-        <v>148</v>
+        <v>93</v>
       </c>
       <c r="D28">
-        <v>1.01</v>
+        <v>0.82</v>
       </c>
       <c r="E28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G28">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="H28">
-        <v>95</v>
+        <v>97</v>
+      </c>
+      <c r="I28" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1135,25 +1219,28 @@
         <v>SSGN-726</v>
       </c>
       <c r="B29" t="str">
-        <v>2025-11-18</v>
+        <v>2025-12-05</v>
       </c>
       <c r="C29">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D29">
-        <v>10.05</v>
+        <v>0.51</v>
       </c>
       <c r="E29">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="G29">
-        <v>63</v>
+        <v>98</v>
       </c>
       <c r="H29">
-        <v>73</v>
+        <v>96</v>
+      </c>
+      <c r="I29" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1161,25 +1248,28 @@
         <v>SSGN-727</v>
       </c>
       <c r="B30" t="str">
-        <v>2025-11-28</v>
+        <v>2025-11-18</v>
       </c>
       <c r="C30">
-        <v>67</v>
+        <v>158</v>
       </c>
       <c r="D30">
-        <v>2.75</v>
+        <v>7.42</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="F30">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="G30">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="H30">
-        <v>95</v>
+        <v>81</v>
+      </c>
+      <c r="I30" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1187,25 +1277,28 @@
         <v>SSBN-735</v>
       </c>
       <c r="B31" t="str">
-        <v>2025-12-07</v>
+        <v>2025-11-30</v>
       </c>
       <c r="C31">
-        <v>163</v>
+        <v>114</v>
       </c>
       <c r="D31">
-        <v>1.07</v>
+        <v>1.43</v>
       </c>
       <c r="E31">
         <v>1</v>
       </c>
       <c r="F31">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G31">
         <v>98</v>
       </c>
       <c r="H31">
-        <v>97</v>
+        <v>99</v>
+      </c>
+      <c r="I31" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1213,25 +1306,28 @@
         <v>SSBN-737</v>
       </c>
       <c r="B32" t="str">
-        <v>2025-12-01</v>
+        <v>2025-11-29</v>
       </c>
       <c r="C32">
-        <v>104</v>
+        <v>149</v>
       </c>
       <c r="D32">
-        <v>1.33</v>
+        <v>11.18</v>
       </c>
       <c r="E32">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F32">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="G32">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="H32">
-        <v>95</v>
+        <v>75</v>
+      </c>
+      <c r="I32" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1239,25 +1335,28 @@
         <v>SSN-21</v>
       </c>
       <c r="B33" t="str">
-        <v>2025-11-27</v>
+        <v>2025-12-07</v>
       </c>
       <c r="C33">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="D33">
-        <v>10.03</v>
+        <v>1.21</v>
       </c>
       <c r="E33">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="F33">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="G33">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="H33">
-        <v>80</v>
+        <v>99</v>
+      </c>
+      <c r="I33" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1265,25 +1364,28 @@
         <v>SSN-22</v>
       </c>
       <c r="B34" t="str">
-        <v>2025-12-03</v>
+        <v>2025-11-28</v>
       </c>
       <c r="C34">
-        <v>53</v>
+        <v>137</v>
       </c>
       <c r="D34">
-        <v>6</v>
+        <v>9.96</v>
       </c>
       <c r="E34">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F34">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G34">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="H34">
-        <v>91</v>
+        <v>73</v>
+      </c>
+      <c r="I34" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1291,25 +1393,28 @@
         <v>SSN-23</v>
       </c>
       <c r="B35" t="str">
-        <v>2025-11-23</v>
+        <v>2025-12-06</v>
       </c>
       <c r="C35">
-        <v>91</v>
+        <v>190</v>
       </c>
       <c r="D35">
-        <v>5.06</v>
+        <v>2.53</v>
       </c>
       <c r="E35">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="G35">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="H35">
-        <v>94</v>
+        <v>98</v>
+      </c>
+      <c r="I35" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1317,25 +1422,28 @@
         <v>AS-39</v>
       </c>
       <c r="B36" t="str">
-        <v>2025-12-08</v>
+        <v>2025-12-03</v>
       </c>
       <c r="C36">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="D36">
-        <v>1.43</v>
+        <v>4.66</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="G36">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="H36">
-        <v>100</v>
+        <v>92</v>
+      </c>
+      <c r="I36" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1343,25 +1451,28 @@
         <v>AS-40</v>
       </c>
       <c r="B37" t="str">
-        <v>2025-12-02</v>
+        <v>2025-12-08</v>
       </c>
       <c r="C37">
-        <v>148</v>
+        <v>116</v>
       </c>
       <c r="D37">
-        <v>1.46</v>
+        <v>1.96</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G37">
+        <v>92</v>
+      </c>
+      <c r="H37">
         <v>98</v>
       </c>
-      <c r="H37">
-        <v>97</v>
+      <c r="I37" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1369,25 +1480,28 @@
         <v>SSN-774</v>
       </c>
       <c r="B38" t="str">
-        <v>2025-12-06</v>
+        <v>2025-12-07</v>
       </c>
       <c r="C38">
-        <v>117</v>
+        <v>164</v>
       </c>
       <c r="D38">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G38">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H38">
-        <v>95</v>
+        <v>96</v>
+      </c>
+      <c r="I38" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1395,25 +1509,28 @@
         <v>SSN-778</v>
       </c>
       <c r="B39" t="str">
-        <v>2025-12-04</v>
+        <v>2025-11-29</v>
       </c>
       <c r="C39">
-        <v>148</v>
+        <v>198</v>
       </c>
       <c r="D39">
-        <v>2.38</v>
+        <v>3.25</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F39">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="G39">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="H39">
-        <v>96</v>
+        <v>93</v>
+      </c>
+      <c r="I39" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1421,25 +1538,28 @@
         <v>SSN-779</v>
       </c>
       <c r="B40" t="str">
-        <v>2025-11-28</v>
+        <v>2025-12-07</v>
       </c>
       <c r="C40">
-        <v>185</v>
+        <v>154</v>
       </c>
       <c r="D40">
-        <v>1.91</v>
+        <v>1.44</v>
       </c>
       <c r="E40">
         <v>0</v>
       </c>
       <c r="F40">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G40">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H40">
-        <v>95</v>
+        <v>99</v>
+      </c>
+      <c r="I40" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1447,25 +1567,28 @@
         <v>SSN-780</v>
       </c>
       <c r="B41" t="str">
-        <v>2025-12-08</v>
+        <v>2025-12-02</v>
       </c>
       <c r="C41">
-        <v>153</v>
+        <v>68</v>
       </c>
       <c r="D41">
-        <v>2.03</v>
+        <v>1.51</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G41">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H41">
-        <v>95</v>
+        <v>96</v>
+      </c>
+      <c r="I41" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1473,25 +1596,28 @@
         <v>SSN-781</v>
       </c>
       <c r="B42" t="str">
-        <v>2025-12-04</v>
+        <v>2025-12-08</v>
       </c>
       <c r="C42">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="D42">
-        <v>1.37</v>
+        <v>0.64</v>
       </c>
       <c r="E42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G42">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H42">
-        <v>100</v>
+        <v>95</v>
+      </c>
+      <c r="I42" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1499,25 +1625,28 @@
         <v>SSN-795</v>
       </c>
       <c r="B43" t="str">
-        <v>2025-12-08</v>
+        <v>2025-12-07</v>
       </c>
       <c r="C43">
-        <v>168</v>
+        <v>116</v>
       </c>
       <c r="D43">
-        <v>2.06</v>
+        <v>6.33</v>
       </c>
       <c r="E43">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F43">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="G43">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="H43">
-        <v>99</v>
+        <v>91</v>
+      </c>
+      <c r="I43" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1525,25 +1654,28 @@
         <v>SSN-753</v>
       </c>
       <c r="B44" t="str">
-        <v>2025-11-29</v>
+        <v>2025-12-01</v>
       </c>
       <c r="C44">
-        <v>85</v>
+        <v>161</v>
       </c>
       <c r="D44">
-        <v>1.54</v>
+        <v>8.98</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="F44">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="G44">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="H44">
-        <v>99</v>
+        <v>72</v>
+      </c>
+      <c r="I44" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1551,25 +1683,28 @@
         <v>SSN-756</v>
       </c>
       <c r="B45" t="str">
-        <v>2025-12-07</v>
+        <v>2025-12-06</v>
       </c>
       <c r="C45">
-        <v>169</v>
+        <v>110</v>
       </c>
       <c r="D45">
-        <v>0.84</v>
+        <v>1.68</v>
       </c>
       <c r="E45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F45">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G45">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H45">
         <v>97</v>
+      </c>
+      <c r="I45" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1577,25 +1712,28 @@
         <v>SSN-764</v>
       </c>
       <c r="B46" t="str">
-        <v>2025-12-02</v>
+        <v>2025-12-07</v>
       </c>
       <c r="C46">
-        <v>118</v>
+        <v>154</v>
       </c>
       <c r="D46">
-        <v>2.34</v>
+        <v>1.66</v>
       </c>
       <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
         <v>2</v>
       </c>
-      <c r="F46">
-        <v>10</v>
-      </c>
       <c r="G46">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H46">
-        <v>100</v>
+        <v>99</v>
+      </c>
+      <c r="I46" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -1603,25 +1741,28 @@
         <v>SSN-765</v>
       </c>
       <c r="B47" t="str">
-        <v>2025-12-08</v>
+        <v>2025-12-03</v>
       </c>
       <c r="C47">
-        <v>170</v>
+        <v>54</v>
       </c>
       <c r="D47">
-        <v>1.43</v>
+        <v>0.52</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G47">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H47">
-        <v>95</v>
+        <v>96</v>
+      </c>
+      <c r="I47" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -1629,25 +1770,28 @@
         <v>SSN-791</v>
       </c>
       <c r="B48" t="str">
-        <v>2025-10-24</v>
+        <v>2025-12-08</v>
       </c>
       <c r="C48">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D48">
-        <v>11.18</v>
+        <v>2.34</v>
       </c>
       <c r="E48">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="F48">
-        <v>78</v>
+        <v>6</v>
       </c>
       <c r="G48">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="H48">
-        <v>85</v>
+        <v>96</v>
+      </c>
+      <c r="I48" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1655,25 +1799,28 @@
         <v>SSN-793</v>
       </c>
       <c r="B49" t="str">
-        <v>2025-12-07</v>
+        <v>2025-12-05</v>
       </c>
       <c r="C49">
-        <v>174</v>
+        <v>94</v>
       </c>
       <c r="D49">
-        <v>2.43</v>
+        <v>1.48</v>
       </c>
       <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
         <v>2</v>
       </c>
-      <c r="F49">
-        <v>8</v>
-      </c>
       <c r="G49">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="H49">
         <v>96</v>
+      </c>
+      <c r="I49" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1681,25 +1828,28 @@
         <v>SSN-750</v>
       </c>
       <c r="B50" t="str">
-        <v>2025-11-08</v>
+        <v>2025-12-08</v>
       </c>
       <c r="C50">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="D50">
-        <v>11.03</v>
+        <v>0.58</v>
       </c>
       <c r="E50">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="F50">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="G50">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="H50">
-        <v>79</v>
+        <v>96</v>
+      </c>
+      <c r="I50" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1707,25 +1857,28 @@
         <v>SSN-751</v>
       </c>
       <c r="B51" t="str">
-        <v>2025-12-05</v>
+        <v>2025-11-14</v>
       </c>
       <c r="C51">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="D51">
-        <v>2.08</v>
+        <v>3.55</v>
       </c>
       <c r="E51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F51">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="G51">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="H51">
-        <v>99</v>
+        <v>94</v>
+      </c>
+      <c r="I51" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1733,25 +1886,28 @@
         <v>SSN-768</v>
       </c>
       <c r="B52" t="str">
-        <v>2025-11-26</v>
+        <v>2025-12-08</v>
       </c>
       <c r="C52">
-        <v>166</v>
+        <v>96</v>
       </c>
       <c r="D52">
-        <v>2.85</v>
+        <v>1.44</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G52">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H52">
-        <v>95</v>
+        <v>99</v>
+      </c>
+      <c r="I52" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1759,25 +1915,28 @@
         <v>SSN-769</v>
       </c>
       <c r="B53" t="str">
-        <v>2025-11-30</v>
+        <v>2025-12-08</v>
       </c>
       <c r="C53">
-        <v>110</v>
+        <v>139</v>
       </c>
       <c r="D53">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="E53">
         <v>1</v>
       </c>
       <c r="F53">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G53">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="H53">
-        <v>98</v>
+        <v>97</v>
+      </c>
+      <c r="I53" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1785,25 +1944,28 @@
         <v>SSN-785</v>
       </c>
       <c r="B54" t="str">
-        <v>2025-12-08</v>
+        <v>2025-12-04</v>
       </c>
       <c r="C54">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="D54">
-        <v>0.72</v>
+        <v>2.23</v>
       </c>
       <c r="E54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G54">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H54">
-        <v>95</v>
+        <v>98</v>
+      </c>
+      <c r="I54" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -1811,25 +1973,28 @@
         <v>SSGN-728</v>
       </c>
       <c r="B55" t="str">
-        <v>2025-12-06</v>
+        <v>2025-11-27</v>
       </c>
       <c r="C55">
-        <v>138</v>
+        <v>59</v>
       </c>
       <c r="D55">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F55">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G55">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="H55">
         <v>97</v>
+      </c>
+      <c r="I55" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -1837,25 +2002,28 @@
         <v>SSGN-729</v>
       </c>
       <c r="B56" t="str">
-        <v>2025-12-01</v>
+        <v>2025-12-08</v>
       </c>
       <c r="C56">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="D56">
-        <v>2.65</v>
+        <v>12.32</v>
       </c>
       <c r="E56">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F56">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="G56">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="H56">
-        <v>97</v>
+        <v>77</v>
+      </c>
+      <c r="I56" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -1863,25 +2031,28 @@
         <v>SSBN-734</v>
       </c>
       <c r="B57" t="str">
-        <v>2025-12-08</v>
+        <v>2025-12-07</v>
       </c>
       <c r="C57">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="D57">
-        <v>2.71</v>
+        <v>1.92</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F57">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G57">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H57">
-        <v>97</v>
+        <v>95</v>
+      </c>
+      <c r="I57" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -1889,25 +2060,28 @@
         <v>SSBN-736</v>
       </c>
       <c r="B58" t="str">
-        <v>2025-11-30</v>
+        <v>2025-12-07</v>
       </c>
       <c r="C58">
-        <v>57</v>
+        <v>138</v>
       </c>
       <c r="D58">
-        <v>6.9</v>
+        <v>1.04</v>
       </c>
       <c r="E58">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F58">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="G58">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="H58">
-        <v>88</v>
+        <v>98</v>
+      </c>
+      <c r="I58" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -1915,25 +2089,28 @@
         <v>SSBN-738</v>
       </c>
       <c r="B59" t="str">
-        <v>2025-12-04</v>
+        <v>2025-12-03</v>
       </c>
       <c r="C59">
-        <v>149</v>
+        <v>70</v>
       </c>
       <c r="D59">
-        <v>0.7</v>
+        <v>3.71</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F59">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="G59">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="H59">
-        <v>96</v>
+        <v>91</v>
+      </c>
+      <c r="I59" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -1941,25 +2118,28 @@
         <v>SSBN-740</v>
       </c>
       <c r="B60" t="str">
-        <v>2025-12-03</v>
+        <v>2025-11-22</v>
       </c>
       <c r="C60">
-        <v>172</v>
+        <v>105</v>
       </c>
       <c r="D60">
-        <v>2.54</v>
+        <v>14.46</v>
       </c>
       <c r="E60">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="G60">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="H60">
-        <v>99</v>
+        <v>75</v>
+      </c>
+      <c r="I60" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -1967,30 +2147,33 @@
         <v>SSBN-742</v>
       </c>
       <c r="B61" t="str">
-        <v>2025-12-04</v>
+        <v>2025-12-06</v>
       </c>
       <c r="C61">
-        <v>147</v>
+        <v>81</v>
       </c>
       <c r="D61">
-        <v>6.19</v>
+        <v>1.56</v>
       </c>
       <c r="E61">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F61">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G61">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="H61">
-        <v>85</v>
+        <v>96</v>
+      </c>
+      <c r="I61" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H61"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I61"/>
   </ignoredErrors>
 </worksheet>
 </file>